--- a/biology/Botanique/Ballerina_(rose)/Ballerina_(rose).xlsx
+++ b/biology/Botanique/Ballerina_(rose)/Ballerina_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Ballerina' est un cultivar de rosier-arbuste hybride diploïde de la famille des Rosa moschata obtenu en Angleterre par le révérend Pemberton et dont la création a été reprise après sa mort par Ann Bentall en 1937[1] en Angleterre. Ce rosier aux petites fleurs simples est célèbre dans de nombreux pays du monde et a donné d'autres variétés. 
+'Ballerina' est un cultivar de rosier-arbuste hybride diploïde de la famille des Rosa moschata obtenu en Angleterre par le révérend Pemberton et dont la création a été reprise après sa mort par Ann Bentall en 1937 en Angleterre. Ce rosier aux petites fleurs simples est célèbre dans de nombreux pays du monde et a donné d'autres variétés. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fleurit de juin à l'automne en une multitude de bouquets de petites fleurs simples de 3 à 4 cm de diamètre de couleur rose clair avec un cœur plus pâle[2]. Il peut mesurer jusqu'à 1,80 m de hauteur pour 1,50 m de largeur et ne se taille pas[3]. Il peut être exposé à mi-ombre, mais le soleil lui est plus bénéfique[4]. Ses feuilles sont vert clair et il est peu épineux, ce qui le fait apprécier dans les jardins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fleurit de juin à l'automne en une multitude de bouquets de petites fleurs simples de 3 à 4 cm de diamètre de couleur rose clair avec un cœur plus pâle. Il peut mesurer jusqu'à 1,80 m de hauteur pour 1,50 m de largeur et ne se taille pas. Il peut être exposé à mi-ombre, mais le soleil lui est plus bénéfique. Ses feuilles sont vert clair et il est peu épineux, ce qui le fait apprécier dans les jardins.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Ballerina' a donné naissance par croisement avec 'Ivory Fashion' (rosier floribunda) à 'Sally Holmes', hybride de Rosa moschata distingué comme rose favorite du monde en 2012, ainsi qu'à 'Marjorie Fair' (Harkness 1978) par croisement avec 'Baby Faraux' (Lille 1924) et à 'Pleine de Grâce' (Lens 1984) par croisement avec Rosa filipes.
 </t>
